--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_20-09.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_20-09.xlsx
@@ -2953,11 +2953,11 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3378,7 +3378,7 @@
     </row>
     <row r="96" ht="25.5" customHeight="1">
       <c r="K96" s="10">
-        <v>6638.7299999999996</v>
+        <v>6708.7299999999996</v>
       </c>
       <c r="L96" s="10"/>
       <c r="M96" s="10"/>
